--- a/test_signup/Utrecht/NTDS_Antibes.xlsx
+++ b/test_signup/Utrecht/NTDS_Antibes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Christian</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
-  </si>
-  <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
   </si>
   <si>
     <t>Open Class</t>
@@ -477,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +487,7 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -560,11 +557,8 @@
       <c r="W1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -575,25 +569,25 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
